--- a/pile6_sect_1_all.xlsx
+++ b/pile6_sect_1_all.xlsx
@@ -461,7 +461,7 @@
         <v>19.42125</v>
       </c>
       <c r="D3">
-        <v>18.79500000000001</v>
+        <v>18.795</v>
       </c>
       <c r="E3">
         <v>16.51916666666667</v>
@@ -501,13 +501,13 @@
         <v>44064</v>
       </c>
       <c r="B5">
-        <v>27.63624999999999</v>
+        <v>27.63625</v>
       </c>
       <c r="C5">
         <v>25.82208333333334</v>
       </c>
       <c r="D5">
-        <v>23.39708333333334</v>
+        <v>23.39708333333333</v>
       </c>
       <c r="E5">
         <v>19.36333333333333</v>
@@ -547,10 +547,10 @@
         <v>44066</v>
       </c>
       <c r="B7">
-        <v>30.38000000000001</v>
+        <v>30.38</v>
       </c>
       <c r="C7">
-        <v>34.05083333333333</v>
+        <v>34.05083333333334</v>
       </c>
       <c r="D7">
         <v>27.77041666666667</v>
@@ -576,10 +576,10 @@
         <v>33.39458333333334</v>
       </c>
       <c r="D8">
-        <v>31.54583333333334</v>
+        <v>31.54583333333333</v>
       </c>
       <c r="E8">
-        <v>15.49416666666666</v>
+        <v>15.49416666666667</v>
       </c>
       <c r="F8">
         <v>81.625</v>
@@ -593,13 +593,13 @@
         <v>44068</v>
       </c>
       <c r="B9">
-        <v>29.81833333333334</v>
+        <v>29.81833333333333</v>
       </c>
       <c r="C9">
         <v>31.77125</v>
       </c>
       <c r="D9">
-        <v>33.24416666666667</v>
+        <v>33.24416666666666</v>
       </c>
       <c r="E9">
         <v>13.44116666666667</v>
@@ -616,7 +616,7 @@
         <v>44069</v>
       </c>
       <c r="B10">
-        <v>29.23541666666666</v>
+        <v>29.23541666666667</v>
       </c>
       <c r="C10">
         <v>30.91791666666667</v>
@@ -639,7 +639,7 @@
         <v>44070</v>
       </c>
       <c r="B11">
-        <v>27.77333333333333</v>
+        <v>27.77333333333334</v>
       </c>
       <c r="C11">
         <v>29.63791666666667</v>
@@ -665,7 +665,7 @@
         <v>26.4975</v>
       </c>
       <c r="C12">
-        <v>28.76791666666667</v>
+        <v>28.76791666666666</v>
       </c>
       <c r="D12">
         <v>26.96291666666667</v>
@@ -691,10 +691,10 @@
         <v>27.91458333333334</v>
       </c>
       <c r="D13">
-        <v>26.46374999999999</v>
+        <v>26.46375</v>
       </c>
       <c r="E13">
-        <v>13.90666666666666</v>
+        <v>13.90666666666667</v>
       </c>
       <c r="F13">
         <v>77</v>
@@ -714,7 +714,7 @@
         <v>27.94083333333333</v>
       </c>
       <c r="D14">
-        <v>26.41583333333333</v>
+        <v>26.41583333333334</v>
       </c>
       <c r="E14">
         <v>14.00916666666667</v>
@@ -731,7 +731,7 @@
         <v>44074</v>
       </c>
       <c r="B15">
-        <v>25.63291666666666</v>
+        <v>25.63291666666667</v>
       </c>
       <c r="C15">
         <v>27.86791666666667</v>
@@ -740,7 +740,7 @@
         <v>22.87333333333333</v>
       </c>
       <c r="E15">
-        <v>14.04916666666666</v>
+        <v>14.04916666666667</v>
       </c>
       <c r="F15">
         <v>73.5</v>
@@ -777,7 +777,7 @@
         <v>44076</v>
       </c>
       <c r="B17">
-        <v>24.54708333333334</v>
+        <v>24.54708333333333</v>
       </c>
       <c r="C17">
         <v>26.46375</v>
@@ -800,10 +800,10 @@
         <v>44077</v>
       </c>
       <c r="B18">
-        <v>22.64083333333332</v>
+        <v>22.64083333333333</v>
       </c>
       <c r="C18">
-        <v>24.54333333333334</v>
+        <v>24.54333333333333</v>
       </c>
       <c r="D18">
         <v>23.54</v>
@@ -829,7 +829,7 @@
         <v>22.54791666666667</v>
       </c>
       <c r="D19">
-        <v>21.88833333333333</v>
+        <v>21.88833333333334</v>
       </c>
       <c r="E19">
         <v>16.56791666666667</v>
@@ -849,7 +849,7 @@
         <v>20.73625</v>
       </c>
       <c r="C20">
-        <v>22.77833333333333</v>
+        <v>22.77833333333334</v>
       </c>
       <c r="D20">
         <v>21.1375</v>
@@ -861,7 +861,7 @@
         <v>85.41666666666667</v>
       </c>
       <c r="G20">
-        <v>4.400000000000001</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -892,7 +892,7 @@
         <v>44081</v>
       </c>
       <c r="B22">
-        <v>22.92833333333334</v>
+        <v>22.92833333333333</v>
       </c>
       <c r="C22">
         <v>24.08291666666667</v>
@@ -938,7 +938,7 @@
         <v>44083</v>
       </c>
       <c r="B24">
-        <v>24.24375000000001</v>
+        <v>24.24375</v>
       </c>
       <c r="C24">
         <v>25.73083333333333</v>
@@ -967,7 +967,7 @@
         <v>25.1225</v>
       </c>
       <c r="D25">
-        <v>19.98708333333334</v>
+        <v>19.98708333333333</v>
       </c>
       <c r="E25">
         <v>10.44916666666667</v>
@@ -984,7 +984,7 @@
         <v>44085</v>
       </c>
       <c r="B26">
-        <v>22.26458333333334</v>
+        <v>22.26458333333333</v>
       </c>
       <c r="C26">
         <v>23.99833333333333</v>
@@ -993,7 +993,7 @@
         <v>22.06208333333333</v>
       </c>
       <c r="E26">
-        <v>9.641958333333331</v>
+        <v>9.641958333333333</v>
       </c>
       <c r="F26">
         <v>83.04166666666667</v>
@@ -1033,7 +1033,7 @@
         <v>21.68625</v>
       </c>
       <c r="C28">
-        <v>21.08666666666666</v>
+        <v>21.08666666666667</v>
       </c>
       <c r="D28">
         <v>22.44875</v>
@@ -1045,7 +1045,7 @@
         <v>82.33333333333333</v>
       </c>
       <c r="G28">
-        <v>9.799999999999999</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1059,7 +1059,7 @@
         <v>16.59833333333333</v>
       </c>
       <c r="D29">
-        <v>25.54333333333334</v>
+        <v>25.54333333333333</v>
       </c>
       <c r="E29">
         <v>11.25125</v>
@@ -1076,13 +1076,13 @@
         <v>44089</v>
       </c>
       <c r="B30">
-        <v>19.31291666666666</v>
+        <v>19.31291666666667</v>
       </c>
       <c r="C30">
         <v>16.02583333333333</v>
       </c>
       <c r="D30">
-        <v>24.89708333333334</v>
+        <v>24.89708333333333</v>
       </c>
       <c r="E30">
         <v>10.424</v>
@@ -1108,7 +1108,7 @@
         <v>21.01541666666667</v>
       </c>
       <c r="E31">
-        <v>9.808458333333334</v>
+        <v>9.808458333333332</v>
       </c>
       <c r="F31">
         <v>93.45833333333333</v>
@@ -1125,7 +1125,7 @@
         <v>21.15083333333333</v>
       </c>
       <c r="C32">
-        <v>23.55958333333333</v>
+        <v>23.55958333333334</v>
       </c>
       <c r="D32">
         <v>13.14375</v>
@@ -1148,13 +1148,13 @@
         <v>20.9</v>
       </c>
       <c r="C33">
-        <v>23.22125000000001</v>
+        <v>23.22125</v>
       </c>
       <c r="D33">
-        <v>10.64833333333334</v>
+        <v>10.64833333333333</v>
       </c>
       <c r="E33">
-        <v>8.436250000000001</v>
+        <v>8.436249999999999</v>
       </c>
       <c r="F33">
         <v>79.875</v>
@@ -1200,7 +1200,7 @@
         <v>16.0075</v>
       </c>
       <c r="E35">
-        <v>8.898416666666664</v>
+        <v>8.898416666666668</v>
       </c>
       <c r="F35">
         <v>78.875</v>
@@ -1214,7 +1214,7 @@
         <v>44095</v>
       </c>
       <c r="B36">
-        <v>19.41958333333334</v>
+        <v>19.41958333333333</v>
       </c>
       <c r="C36">
         <v>18.36208333333333</v>
@@ -1246,7 +1246,7 @@
         <v>20.98583333333333</v>
       </c>
       <c r="E37">
-        <v>10.81533333333334</v>
+        <v>10.81533333333333</v>
       </c>
       <c r="F37">
         <v>70.125</v>
@@ -1260,7 +1260,7 @@
         <v>44097</v>
       </c>
       <c r="B38">
-        <v>18.66333333333334</v>
+        <v>18.66333333333333</v>
       </c>
       <c r="C38">
         <v>17.74875</v>
@@ -1289,10 +1289,10 @@
         <v>19.50208333333333</v>
       </c>
       <c r="D39">
-        <v>18.36291666666666</v>
+        <v>18.36291666666667</v>
       </c>
       <c r="E39">
-        <v>12.02708333333334</v>
+        <v>12.02708333333333</v>
       </c>
       <c r="F39">
         <v>94.66666666666667</v>
@@ -1309,7 +1309,7 @@
         <v>20.65333333333333</v>
       </c>
       <c r="C40">
-        <v>21.92041666666666</v>
+        <v>21.92041666666667</v>
       </c>
       <c r="D40">
         <v>16.275</v>
@@ -1401,10 +1401,10 @@
         <v>22.73375</v>
       </c>
       <c r="C44">
-        <v>23.93333333333334</v>
+        <v>23.93333333333333</v>
       </c>
       <c r="D44">
-        <v>22.07041666666667</v>
+        <v>22.07041666666666</v>
       </c>
       <c r="E44">
         <v>10.52791666666667</v>
@@ -1424,13 +1424,13 @@
         <v>22.87875</v>
       </c>
       <c r="C45">
-        <v>24.10166666666666</v>
+        <v>24.10166666666667</v>
       </c>
       <c r="D45">
         <v>22.65291666666667</v>
       </c>
       <c r="E45">
-        <v>11.40041666666666</v>
+        <v>11.40041666666667</v>
       </c>
       <c r="F45">
         <v>91.41666666666667</v>
@@ -1470,13 +1470,13 @@
         <v>22.48333333333333</v>
       </c>
       <c r="C47">
-        <v>24.08333333333334</v>
+        <v>24.08333333333333</v>
       </c>
       <c r="D47">
         <v>22.515</v>
       </c>
       <c r="E47">
-        <v>10.73166666666666</v>
+        <v>10.73166666666667</v>
       </c>
       <c r="F47">
         <v>88.33333333333333</v>
@@ -1493,7 +1493,7 @@
         <v>20.57625</v>
       </c>
       <c r="C48">
-        <v>22.36958333333334</v>
+        <v>22.36958333333333</v>
       </c>
       <c r="D48">
         <v>22.05333333333333</v>
@@ -1591,7 +1591,7 @@
         <v>17.40833333333333</v>
       </c>
       <c r="E52">
-        <v>11.91708333333334</v>
+        <v>11.91708333333333</v>
       </c>
       <c r="F52">
         <v>90.29166666666667</v>
@@ -1651,7 +1651,7 @@
         <v>44114</v>
       </c>
       <c r="B55">
-        <v>17.84333333333334</v>
+        <v>17.84333333333333</v>
       </c>
       <c r="C55">
         <v>17.51125</v>
@@ -1660,7 +1660,7 @@
         <v>19.05833333333333</v>
       </c>
       <c r="E55">
-        <v>9.957500000000001</v>
+        <v>9.9575</v>
       </c>
       <c r="F55">
         <v>82.29166666666667</v>
@@ -1683,13 +1683,13 @@
         <v>21.11</v>
       </c>
       <c r="E56">
-        <v>8.823416666666665</v>
+        <v>8.823416666666667</v>
       </c>
       <c r="F56">
         <v>93.79166666666667</v>
       </c>
       <c r="G56">
-        <v>5.800000000000001</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1706,7 +1706,7 @@
         <v>22.33916666666667</v>
       </c>
       <c r="E57">
-        <v>8.284124999999998</v>
+        <v>8.284125</v>
       </c>
       <c r="F57">
         <v>95.08333333333333</v>
@@ -1726,7 +1726,7 @@
         <v>22.44166666666667</v>
       </c>
       <c r="D58">
-        <v>23.27833333333334</v>
+        <v>23.27833333333333</v>
       </c>
       <c r="E58">
         <v>8.141958333333333</v>
@@ -1743,16 +1743,16 @@
         <v>44118</v>
       </c>
       <c r="B59">
-        <v>21.10166666666666</v>
+        <v>21.10166666666667</v>
       </c>
       <c r="C59">
         <v>22.745</v>
       </c>
       <c r="D59">
-        <v>22.16458333333333</v>
+        <v>22.16458333333334</v>
       </c>
       <c r="E59">
-        <v>5.322166666666666</v>
+        <v>5.322166666666667</v>
       </c>
       <c r="F59">
         <v>87.375</v>
@@ -1766,7 +1766,7 @@
         <v>44119</v>
       </c>
       <c r="B60">
-        <v>19.80666666666666</v>
+        <v>19.80666666666667</v>
       </c>
       <c r="C60">
         <v>21.53</v>
@@ -1821,7 +1821,7 @@
         <v>18.92625</v>
       </c>
       <c r="E62">
-        <v>4.374166666666666</v>
+        <v>4.374166666666667</v>
       </c>
       <c r="F62">
         <v>91.95833333333333</v>
@@ -1841,7 +1841,7 @@
         <v>16.99708333333333</v>
       </c>
       <c r="D63">
-        <v>17.57541666666666</v>
+        <v>17.57541666666667</v>
       </c>
       <c r="E63">
         <v>3.34625</v>
@@ -1858,10 +1858,10 @@
         <v>44123</v>
       </c>
       <c r="B64">
-        <v>15.94333333333334</v>
+        <v>15.94333333333333</v>
       </c>
       <c r="C64">
-        <v>17.36291666666666</v>
+        <v>17.36291666666667</v>
       </c>
       <c r="D64">
         <v>13.44083333333333</v>
@@ -1884,13 +1884,13 @@
         <v>14.62291666666667</v>
       </c>
       <c r="C65">
-        <v>16.42041666666666</v>
+        <v>16.42041666666667</v>
       </c>
       <c r="D65">
-        <v>10.08583333333334</v>
+        <v>10.08583333333333</v>
       </c>
       <c r="E65">
-        <v>0.1062916666666666</v>
+        <v>0.1062916666666667</v>
       </c>
       <c r="F65">
         <v>85.5</v>
@@ -1904,7 +1904,7 @@
         <v>44125</v>
       </c>
       <c r="B66">
-        <v>14.45416666666666</v>
+        <v>14.45416666666667</v>
       </c>
       <c r="C66">
         <v>15.83125</v>
@@ -1913,13 +1913,13 @@
         <v>11.56291666666667</v>
       </c>
       <c r="E66">
-        <v>0.5442499999999999</v>
+        <v>0.54425</v>
       </c>
       <c r="F66">
         <v>87.125</v>
       </c>
       <c r="G66">
-        <v>5.400000000000001</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1933,10 +1933,10 @@
         <v>16.87791666666667</v>
       </c>
       <c r="D67">
-        <v>7.250249999999999</v>
+        <v>7.25025</v>
       </c>
       <c r="E67">
-        <v>4.699583333333332</v>
+        <v>4.699583333333334</v>
       </c>
       <c r="F67">
         <v>95.83333333333333</v>
@@ -1982,7 +1982,7 @@
         <v>10.703375</v>
       </c>
       <c r="E69">
-        <v>1.863583333333334</v>
+        <v>1.863583333333333</v>
       </c>
       <c r="F69">
         <v>83.20833333333333</v>
@@ -2019,16 +2019,16 @@
         <v>44130</v>
       </c>
       <c r="B71">
-        <v>13.59458333333334</v>
+        <v>13.59458333333333</v>
       </c>
       <c r="C71">
         <v>14.99916666666667</v>
       </c>
       <c r="D71">
-        <v>8.183583333333335</v>
+        <v>8.183583333333333</v>
       </c>
       <c r="E71">
-        <v>7.442125000000001</v>
+        <v>7.442125</v>
       </c>
       <c r="F71">
         <v>91.16666666666667</v>
@@ -2071,7 +2071,7 @@
         <v>14.95375</v>
       </c>
       <c r="D73">
-        <v>6.708375000000003</v>
+        <v>6.708375</v>
       </c>
       <c r="E73">
         <v>8.31875</v>
@@ -2091,7 +2091,7 @@
         <v>12.56583333333333</v>
       </c>
       <c r="C74">
-        <v>15.18958333333334</v>
+        <v>15.18958333333333</v>
       </c>
       <c r="D74">
         <v>7.331</v>
@@ -2143,7 +2143,7 @@
         <v>10.62166666666667</v>
       </c>
       <c r="E76">
-        <v>0.06470833333333344</v>
+        <v>0.06470833333333334</v>
       </c>
       <c r="F76">
         <v>91.04166666666667</v>
@@ -2166,7 +2166,7 @@
         <v>9.859166666666667</v>
       </c>
       <c r="E77">
-        <v>5.111250000000001</v>
+        <v>5.11125</v>
       </c>
       <c r="F77">
         <v>88.41666666666667</v>
@@ -2186,10 +2186,10 @@
         <v>14.4125</v>
       </c>
       <c r="D78">
-        <v>8.270999999999997</v>
+        <v>8.270999999999999</v>
       </c>
       <c r="E78">
-        <v>4.344749999999999</v>
+        <v>4.34475</v>
       </c>
       <c r="F78">
         <v>85.30434782608695</v>
@@ -2209,10 +2209,10 @@
         <v>13.41666666666667</v>
       </c>
       <c r="D79">
-        <v>6.044833333333332</v>
+        <v>6.044833333333333</v>
       </c>
       <c r="E79">
-        <v>8.991499999999998</v>
+        <v>8.9915</v>
       </c>
       <c r="F79">
         <v>88.70833333333333</v>
@@ -2229,7 +2229,7 @@
         <v>12.0725</v>
       </c>
       <c r="C80">
-        <v>13.95541666666666</v>
+        <v>13.95541666666667</v>
       </c>
       <c r="D80">
         <v>7.502875</v>
@@ -2252,13 +2252,13 @@
         <v>12.87666666666667</v>
       </c>
       <c r="C81">
-        <v>14.91958333333334</v>
+        <v>14.91958333333333</v>
       </c>
       <c r="D81">
-        <v>9.604500000000002</v>
+        <v>9.6045</v>
       </c>
       <c r="E81">
-        <v>5.708000000000001</v>
+        <v>5.707999999999999</v>
       </c>
       <c r="F81">
         <v>75.875</v>
@@ -2298,13 +2298,13 @@
         <v>12.5625</v>
       </c>
       <c r="C83">
-        <v>7.214041666666668</v>
+        <v>7.214041666666667</v>
       </c>
       <c r="D83">
-        <v>15.71541666666666</v>
+        <v>15.71541666666667</v>
       </c>
       <c r="E83">
-        <v>8.343624999999999</v>
+        <v>8.343625000000001</v>
       </c>
       <c r="F83">
         <v>71.25</v>
@@ -2318,7 +2318,7 @@
         <v>44143</v>
       </c>
       <c r="B84">
-        <v>11.74083333333334</v>
+        <v>11.74083333333333</v>
       </c>
       <c r="C84">
         <v>6.997</v>
@@ -2341,7 +2341,7 @@
         <v>44144</v>
       </c>
       <c r="B85">
-        <v>11.18208333333334</v>
+        <v>11.18208333333333</v>
       </c>
       <c r="C85">
         <v>7.137833333333333</v>
@@ -2373,7 +2373,7 @@
         <v>16.84083333333333</v>
       </c>
       <c r="E86">
-        <v>-0.8717916666666666</v>
+        <v>-0.8717916666666667</v>
       </c>
       <c r="F86">
         <v>85.45833333333333</v>
@@ -2390,7 +2390,7 @@
         <v>11.30791666666667</v>
       </c>
       <c r="C87">
-        <v>9.569166666666668</v>
+        <v>9.569166666666666</v>
       </c>
       <c r="D87">
         <v>16.68625</v>
@@ -2442,7 +2442,7 @@
         <v>15.97125</v>
       </c>
       <c r="E89">
-        <v>3.387333333333333</v>
+        <v>3.387333333333334</v>
       </c>
       <c r="F89">
         <v>85.83333333333333</v>
@@ -2465,7 +2465,7 @@
         <v>13.97333333333333</v>
       </c>
       <c r="E90">
-        <v>2.419041666666666</v>
+        <v>2.419041666666667</v>
       </c>
       <c r="F90">
         <v>86.54166666666667</v>
@@ -2488,7 +2488,7 @@
         <v>10.80791666666667</v>
       </c>
       <c r="E91">
-        <v>1.449333333333334</v>
+        <v>1.449333333333333</v>
       </c>
       <c r="F91">
         <v>86.04166666666667</v>
@@ -2531,16 +2531,16 @@
         <v>12.8725</v>
       </c>
       <c r="D93">
-        <v>5.377916666666665</v>
+        <v>5.377916666666667</v>
       </c>
       <c r="E93">
-        <v>3.076833333333334</v>
+        <v>3.076833333333333</v>
       </c>
       <c r="F93">
         <v>95.08333333333333</v>
       </c>
       <c r="G93">
-        <v>4.800000000000001</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2580,7 +2580,7 @@
         <v>4.55525</v>
       </c>
       <c r="E95">
-        <v>7.258541666666669</v>
+        <v>7.258541666666667</v>
       </c>
       <c r="F95">
         <v>84.95833333333333</v>
@@ -2600,7 +2600,7 @@
         <v>12.11791666666667</v>
       </c>
       <c r="D96">
-        <v>7.240333333333335</v>
+        <v>7.240333333333333</v>
       </c>
       <c r="E96">
         <v>-0.5664583333333334</v>
@@ -2623,7 +2623,7 @@
         <v>11.49625</v>
       </c>
       <c r="D97">
-        <v>6.976708333333335</v>
+        <v>6.976708333333334</v>
       </c>
       <c r="E97">
         <v>-1.979541666666667</v>
@@ -2632,7 +2632,7 @@
         <v>91.33333333333333</v>
       </c>
       <c r="G97">
-        <v>3.399999999999999</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2649,7 +2649,7 @@
         <v>5.625</v>
       </c>
       <c r="E98">
-        <v>2.580124999999999</v>
+        <v>2.580125</v>
       </c>
       <c r="F98">
         <v>91.625</v>
@@ -2692,7 +2692,7 @@
         <v>11.35416666666667</v>
       </c>
       <c r="D100">
-        <v>7.398916666666666</v>
+        <v>7.398916666666667</v>
       </c>
       <c r="E100">
         <v>0.4089583333333333</v>
@@ -2715,7 +2715,7 @@
         <v>11.45875</v>
       </c>
       <c r="D101">
-        <v>7.176666666666669</v>
+        <v>7.176666666666667</v>
       </c>
       <c r="E101">
         <v>-2.0205</v>
@@ -2738,7 +2738,7 @@
         <v>11.6075</v>
       </c>
       <c r="D102">
-        <v>6.908208333333335</v>
+        <v>6.908208333333334</v>
       </c>
       <c r="E102">
         <v>1.050791666666667</v>
@@ -2747,7 +2747,7 @@
         <v>91.83333333333333</v>
       </c>
       <c r="G102">
-        <v>7.200000000000001</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2761,7 +2761,7 @@
         <v>11.83625</v>
       </c>
       <c r="D103">
-        <v>5.314958333333334</v>
+        <v>5.314958333333333</v>
       </c>
       <c r="E103">
         <v>0.3242916666666667</v>
@@ -2830,7 +2830,7 @@
         <v>11.3925</v>
       </c>
       <c r="D106">
-        <v>6.399375000000002</v>
+        <v>6.399375</v>
       </c>
       <c r="E106">
         <v>-0.7167916666666666</v>
@@ -2879,7 +2879,7 @@
         <v>7.253708333333333</v>
       </c>
       <c r="E108">
-        <v>0.04624999999999996</v>
+        <v>0.04625000000000001</v>
       </c>
       <c r="F108">
         <v>91</v>
@@ -2925,7 +2925,7 @@
         <v>5.019083333333334</v>
       </c>
       <c r="E110">
-        <v>-0.8550833333333331</v>
+        <v>-0.8550833333333333</v>
       </c>
       <c r="F110">
         <v>84.875</v>
@@ -2939,13 +2939,13 @@
         <v>44170</v>
       </c>
       <c r="B111">
-        <v>7.945166666666665</v>
+        <v>7.945166666666666</v>
       </c>
       <c r="C111">
         <v>9.720000000000001</v>
       </c>
       <c r="D111">
-        <v>4.41525</v>
+        <v>4.415249999999999</v>
       </c>
       <c r="E111">
         <v>0.9281666666666667</v>
@@ -2962,7 +2962,7 @@
         <v>44171</v>
       </c>
       <c r="B112">
-        <v>7.427374999999998</v>
+        <v>7.427375000000001</v>
       </c>
       <c r="C112">
         <v>9.089583333333334</v>
@@ -2971,7 +2971,7 @@
         <v>3.543375</v>
       </c>
       <c r="E112">
-        <v>2.182333333333334</v>
+        <v>2.182333333333333</v>
       </c>
       <c r="F112">
         <v>96.70833333333333</v>
@@ -2985,10 +2985,10 @@
         <v>44172</v>
       </c>
       <c r="B113">
-        <v>7.140416666666664</v>
+        <v>7.140416666666667</v>
       </c>
       <c r="C113">
-        <v>8.668333333333331</v>
+        <v>8.668333333333333</v>
       </c>
       <c r="D113">
         <v>3.191333333333333</v>
@@ -3008,13 +3008,13 @@
         <v>44173</v>
       </c>
       <c r="B114">
-        <v>7.003249999999999</v>
+        <v>7.00325</v>
       </c>
       <c r="C114">
         <v>8.23025</v>
       </c>
       <c r="D114">
-        <v>3.859666666666666</v>
+        <v>3.859666666666667</v>
       </c>
       <c r="E114">
         <v>-3.088958333333334</v>
@@ -3034,13 +3034,13 @@
         <v>6.825791666666666</v>
       </c>
       <c r="C115">
-        <v>7.591625</v>
+        <v>7.591625000000001</v>
       </c>
       <c r="D115">
-        <v>4.273458333333334</v>
+        <v>4.273458333333333</v>
       </c>
       <c r="E115">
-        <v>-3.974291666666668</v>
+        <v>-3.974291666666666</v>
       </c>
       <c r="F115">
         <v>83.125</v>
@@ -3054,16 +3054,16 @@
         <v>44175</v>
       </c>
       <c r="B116">
-        <v>6.709041666666665</v>
+        <v>6.709041666666667</v>
       </c>
       <c r="C116">
-        <v>7.049791666666668</v>
+        <v>7.049791666666667</v>
       </c>
       <c r="D116">
         <v>4.352916666666666</v>
       </c>
       <c r="E116">
-        <v>-3.702916666666666</v>
+        <v>-3.702916666666667</v>
       </c>
       <c r="F116">
         <v>86.33333333333333</v>
@@ -3077,16 +3077,16 @@
         <v>44176</v>
       </c>
       <c r="B117">
-        <v>6.412458333333334</v>
+        <v>6.412458333333333</v>
       </c>
       <c r="C117">
-        <v>6.550458333333336</v>
+        <v>6.550458333333334</v>
       </c>
       <c r="D117">
-        <v>5.163083333333332</v>
+        <v>5.163083333333334</v>
       </c>
       <c r="E117">
-        <v>-4.134375000000001</v>
+        <v>-4.134374999999999</v>
       </c>
       <c r="F117">
         <v>87.83333333333333</v>
@@ -3106,7 +3106,7 @@
         <v>5.902791666666666</v>
       </c>
       <c r="D118">
-        <v>5.426000000000001</v>
+        <v>5.425999999999999</v>
       </c>
       <c r="E118">
         <v>-1.885</v>
@@ -3126,13 +3126,13 @@
         <v>5.832458333333332</v>
       </c>
       <c r="C119">
-        <v>5.700583333333334</v>
+        <v>5.700583333333333</v>
       </c>
       <c r="D119">
-        <v>5.199708333333333</v>
+        <v>5.199708333333334</v>
       </c>
       <c r="E119">
-        <v>-2.910874999999999</v>
+        <v>-2.910875</v>
       </c>
       <c r="F119">
         <v>89.75</v>
@@ -3149,10 +3149,10 @@
         <v>6.063416666666666</v>
       </c>
       <c r="C120">
-        <v>5.773291666666668</v>
+        <v>5.773291666666666</v>
       </c>
       <c r="D120">
-        <v>5.784291666666665</v>
+        <v>5.784291666666667</v>
       </c>
       <c r="E120">
         <v>-3.108625</v>
@@ -3172,13 +3172,13 @@
         <v>6.345124999999999</v>
       </c>
       <c r="C121">
-        <v>5.840208333333334</v>
+        <v>5.840208333333333</v>
       </c>
       <c r="D121">
         <v>5.833333333333333</v>
       </c>
       <c r="E121">
-        <v>-2.689583333333334</v>
+        <v>-2.689583333333333</v>
       </c>
       <c r="F121">
         <v>91.08333333333333</v>
@@ -3198,7 +3198,7 @@
         <v>5.951583333333333</v>
       </c>
       <c r="D122">
-        <v>5.066041666666668</v>
+        <v>5.066041666666666</v>
       </c>
       <c r="E122">
         <v>0.313625</v>
@@ -3221,7 +3221,7 @@
         <v>6.306249999999999</v>
       </c>
       <c r="D123">
-        <v>5.097416666666668</v>
+        <v>5.097416666666667</v>
       </c>
       <c r="E123">
         <v>-2.231458333333333</v>
@@ -3241,7 +3241,7 @@
         <v>6.036124999999999</v>
       </c>
       <c r="C124">
-        <v>5.892125000000001</v>
+        <v>5.892125</v>
       </c>
       <c r="D124">
         <v>5.99775</v>
@@ -3261,16 +3261,16 @@
         <v>44184</v>
       </c>
       <c r="B125">
-        <v>5.292000000000001</v>
+        <v>5.292</v>
       </c>
       <c r="C125">
         <v>5.41525</v>
       </c>
       <c r="D125">
-        <v>5.708791666666667</v>
+        <v>5.708791666666666</v>
       </c>
       <c r="E125">
-        <v>-1.485458333333333</v>
+        <v>-1.485458333333334</v>
       </c>
       <c r="F125">
         <v>94.95833333333333</v>
@@ -3284,10 +3284,10 @@
         <v>44185</v>
       </c>
       <c r="B126">
-        <v>5.269666666666668</v>
+        <v>5.269666666666667</v>
       </c>
       <c r="C126">
-        <v>5.663916666666668</v>
+        <v>5.663916666666666</v>
       </c>
       <c r="D126">
         <v>5.546708333333334</v>
@@ -3307,7 +3307,7 @@
         <v>44186</v>
       </c>
       <c r="B127">
-        <v>5.537999999999999</v>
+        <v>5.538</v>
       </c>
       <c r="C127">
         <v>6.119541666666667</v>
@@ -3333,10 +3333,10 @@
         <v>5.864333333333334</v>
       </c>
       <c r="C128">
-        <v>6.437166666666667</v>
+        <v>6.437166666666666</v>
       </c>
       <c r="D128">
-        <v>5.274541666666666</v>
+        <v>5.274541666666667</v>
       </c>
       <c r="E128">
         <v>2.614416666666667</v>
@@ -3362,7 +3362,7 @@
         <v>4.948333333333333</v>
       </c>
       <c r="E129">
-        <v>-0.02837500000000002</v>
+        <v>-0.02837499999999999</v>
       </c>
       <c r="F129">
         <v>94.75</v>
@@ -3385,7 +3385,7 @@
         <v>5.233666666666667</v>
       </c>
       <c r="E130">
-        <v>-0.5793749999999999</v>
+        <v>-0.579375</v>
       </c>
       <c r="F130">
         <v>96.375</v>
@@ -3425,7 +3425,7 @@
         <v>6.035458333333334</v>
       </c>
       <c r="C132">
-        <v>6.236416666666668</v>
+        <v>6.236416666666667</v>
       </c>
       <c r="D132">
         <v>3.725666666666667</v>
@@ -3448,13 +3448,13 @@
         <v>6.166958333333334</v>
       </c>
       <c r="C133">
-        <v>6.563375</v>
+        <v>6.563375000000001</v>
       </c>
       <c r="D133">
         <v>4.132375000000001</v>
       </c>
       <c r="E133">
-        <v>-3.602708333333333</v>
+        <v>-3.602708333333334</v>
       </c>
       <c r="F133">
         <v>89.83333333333333</v>
@@ -3471,7 +3471,7 @@
         <v>5.793666666666667</v>
       </c>
       <c r="C134">
-        <v>6.770541666666667</v>
+        <v>6.770541666666666</v>
       </c>
       <c r="D134">
         <v>3.351583333333334</v>
@@ -3491,7 +3491,7 @@
         <v>44194</v>
       </c>
       <c r="B135">
-        <v>4.285124999999999</v>
+        <v>4.285125</v>
       </c>
       <c r="C135">
         <v>5.643708333333334</v>
@@ -3517,7 +3517,7 @@
         <v>2.261666666666667</v>
       </c>
       <c r="C136">
-        <v>3.504208333333334</v>
+        <v>3.504208333333333</v>
       </c>
       <c r="D136">
         <v>3.563625</v>
@@ -3546,7 +3546,7 @@
         <v>2.646958333333334</v>
       </c>
       <c r="E137">
-        <v>0.6207083333333334</v>
+        <v>0.6207083333333333</v>
       </c>
       <c r="F137">
         <v>94.16666666666667</v>
@@ -3560,10 +3560,10 @@
         <v>44197</v>
       </c>
       <c r="B138">
-        <v>2.061666666666666</v>
+        <v>2.061666666666667</v>
       </c>
       <c r="C138">
-        <v>3.219666666666666</v>
+        <v>3.219666666666667</v>
       </c>
       <c r="D138">
         <v>2.873916666666667</v>
@@ -3606,7 +3606,7 @@
         <v>44199</v>
       </c>
       <c r="B140">
-        <v>3.098291666666667</v>
+        <v>3.098291666666666</v>
       </c>
       <c r="C140">
         <v>3.699708333333334</v>
@@ -3658,7 +3658,7 @@
         <v>4.119291666666666</v>
       </c>
       <c r="D142">
-        <v>3.845333333333334</v>
+        <v>3.845333333333333</v>
       </c>
       <c r="E142">
         <v>-10.69083333333333</v>
@@ -3675,13 +3675,13 @@
         <v>44202</v>
       </c>
       <c r="B143">
-        <v>5.408791666666666</v>
+        <v>5.408791666666667</v>
       </c>
       <c r="C143">
-        <v>4.711625000000001</v>
+        <v>4.711625</v>
       </c>
       <c r="D143">
-        <v>4.203333333333332</v>
+        <v>4.203333333333333</v>
       </c>
       <c r="E143">
         <v>-7.645208333333334</v>
@@ -3704,10 +3704,10 @@
         <v>4.812458333333333</v>
       </c>
       <c r="D144">
-        <v>4.368166666666667</v>
+        <v>4.368166666666666</v>
       </c>
       <c r="E144">
-        <v>-6.892750000000002</v>
+        <v>-6.892749999999999</v>
       </c>
       <c r="F144">
         <v>90.375</v>
@@ -3724,7 +3724,7 @@
         <v>5.474458333333334</v>
       </c>
       <c r="C145">
-        <v>5.064624999999999</v>
+        <v>5.064625</v>
       </c>
       <c r="D145">
         <v>4.5505</v>
@@ -3744,7 +3744,7 @@
         <v>44205</v>
       </c>
       <c r="B146">
-        <v>5.724416666666667</v>
+        <v>5.724416666666666</v>
       </c>
       <c r="C146">
         <v>5.600166666666667</v>
@@ -3767,13 +3767,13 @@
         <v>44206</v>
       </c>
       <c r="B147">
-        <v>5.812458333333332</v>
+        <v>5.812458333333333</v>
       </c>
       <c r="C147">
-        <v>5.760999999999999</v>
+        <v>5.761</v>
       </c>
       <c r="D147">
-        <v>4.880291666666667</v>
+        <v>4.880291666666666</v>
       </c>
       <c r="E147">
         <v>-15.26125</v>
@@ -3796,10 +3796,10 @@
         <v>4.930666666666666</v>
       </c>
       <c r="D148">
-        <v>4.436958333333334</v>
+        <v>4.436958333333333</v>
       </c>
       <c r="E148">
-        <v>-9.769166666666669</v>
+        <v>-9.769166666666667</v>
       </c>
       <c r="F148">
         <v>86.75</v>
@@ -3819,7 +3819,7 @@
         <v>2.88625</v>
       </c>
       <c r="D149">
-        <v>4.313666666666667</v>
+        <v>4.313666666666666</v>
       </c>
       <c r="E149">
         <v>-11.78166666666667</v>
@@ -3836,7 +3836,7 @@
         <v>44209</v>
       </c>
       <c r="B150">
-        <v>0.007958333333333354</v>
+        <v>0.007958333333333336</v>
       </c>
       <c r="C150">
         <v>-0.6587916666666667</v>
@@ -3885,7 +3885,7 @@
         <v>1.4725</v>
       </c>
       <c r="C152">
-        <v>-0.3300416666666668</v>
+        <v>-0.3300416666666667</v>
       </c>
       <c r="D152">
         <v>1.031083333333333</v>
@@ -3928,13 +3928,13 @@
         <v>44213</v>
       </c>
       <c r="B154">
-        <v>2.172458333333333</v>
+        <v>2.172458333333334</v>
       </c>
       <c r="C154">
         <v>-0.188125</v>
       </c>
       <c r="D154">
-        <v>0.07858333333333335</v>
+        <v>0.07858333333333334</v>
       </c>
       <c r="E154">
         <v>-5.282416666666667</v>
@@ -3974,7 +3974,7 @@
         <v>44215</v>
       </c>
       <c r="B156">
-        <v>1.124958333333334</v>
+        <v>1.124958333333333</v>
       </c>
       <c r="C156">
         <v>-0.4126666666666667</v>
@@ -3983,7 +3983,7 @@
         <v>0.1951666666666667</v>
       </c>
       <c r="E156">
-        <v>-3.523083333333333</v>
+        <v>-3.523083333333334</v>
       </c>
       <c r="F156">
         <v>93.79166666666667</v>
@@ -3997,7 +3997,7 @@
         <v>44216</v>
       </c>
       <c r="B157">
-        <v>-0.04649999999999995</v>
+        <v>-0.04650000000000001</v>
       </c>
       <c r="C157">
         <v>-1.031625</v>
@@ -4006,7 +4006,7 @@
         <v>0.523</v>
       </c>
       <c r="E157">
-        <v>-4.509416666666666</v>
+        <v>-4.509416666666667</v>
       </c>
       <c r="F157">
         <v>91.70833333333333</v>
@@ -4020,13 +4020,13 @@
         <v>44217</v>
       </c>
       <c r="B158">
-        <v>-3.399416666666666</v>
+        <v>-3.399416666666667</v>
       </c>
       <c r="C158">
         <v>-6.29775</v>
       </c>
       <c r="D158">
-        <v>0.6334583333333331</v>
+        <v>0.6334583333333333</v>
       </c>
       <c r="E158">
         <v>-9.417208333333333</v>
@@ -4046,7 +4046,7 @@
         <v>-7.110291666666666</v>
       </c>
       <c r="C159">
-        <v>-12.24333333333334</v>
+        <v>-12.24333333333333</v>
       </c>
       <c r="D159">
         <v>-0.05654166666666666</v>
@@ -4066,16 +4066,16 @@
         <v>44219</v>
       </c>
       <c r="B160">
-        <v>-8.921666666666665</v>
+        <v>-8.921666666666667</v>
       </c>
       <c r="C160">
         <v>-10.68958333333333</v>
       </c>
       <c r="D160">
-        <v>-0.05362500000000001</v>
+        <v>-0.053625</v>
       </c>
       <c r="E160">
-        <v>-2.986749999999999</v>
+        <v>-2.98675</v>
       </c>
       <c r="F160">
         <v>93.33333333333333</v>
@@ -4089,16 +4089,16 @@
         <v>44220</v>
       </c>
       <c r="B161">
-        <v>-9.055833333333332</v>
+        <v>-9.055833333333334</v>
       </c>
       <c r="C161">
-        <v>-8.415083333333332</v>
+        <v>-8.415083333333333</v>
       </c>
       <c r="D161">
-        <v>0.4709583333333333</v>
+        <v>0.4709583333333334</v>
       </c>
       <c r="E161">
-        <v>0.5332499999999999</v>
+        <v>0.53325</v>
       </c>
       <c r="F161">
         <v>96.33333333333333</v>
@@ -4121,7 +4121,7 @@
         <v>0.3624166666666667</v>
       </c>
       <c r="E162">
-        <v>0.3883749999999999</v>
+        <v>0.388375</v>
       </c>
       <c r="F162">
         <v>97.625</v>
@@ -4135,16 +4135,16 @@
         <v>44222</v>
       </c>
       <c r="B163">
-        <v>-8.667500000000002</v>
+        <v>-8.6675</v>
       </c>
       <c r="C163">
-        <v>-5.486625000000001</v>
+        <v>-5.486625</v>
       </c>
       <c r="D163">
         <v>0.5054999999999999</v>
       </c>
       <c r="E163">
-        <v>0.4143749999999999</v>
+        <v>0.414375</v>
       </c>
       <c r="F163">
         <v>94.70833333333333</v>
@@ -4167,7 +4167,7 @@
         <v>0.5045833333333333</v>
       </c>
       <c r="E164">
-        <v>0.2362916666666668</v>
+        <v>0.2362916666666667</v>
       </c>
       <c r="F164">
         <v>98.25</v>
@@ -4181,13 +4181,13 @@
         <v>44224</v>
       </c>
       <c r="B165">
-        <v>-7.682083333333335</v>
+        <v>-7.682083333333334</v>
       </c>
       <c r="C165">
         <v>-3.545208333333333</v>
       </c>
       <c r="D165">
-        <v>0.4885416666666668</v>
+        <v>0.4885416666666667</v>
       </c>
       <c r="E165">
         <v>-1.4785</v>
@@ -4204,13 +4204,13 @@
         <v>44225</v>
       </c>
       <c r="B166">
-        <v>-7.341458333333335</v>
+        <v>-7.341458333333333</v>
       </c>
       <c r="C166">
         <v>-3.300875</v>
       </c>
       <c r="D166">
-        <v>0.4914583333333334</v>
+        <v>0.4914583333333333</v>
       </c>
       <c r="E166">
         <v>-2.829083333333333</v>
@@ -4227,13 +4227,13 @@
         <v>44226</v>
       </c>
       <c r="B167">
-        <v>-7.014833333333335</v>
+        <v>-7.014833333333333</v>
       </c>
       <c r="C167">
         <v>-3.2285</v>
       </c>
       <c r="D167">
-        <v>0.5775833333333334</v>
+        <v>0.5775833333333333</v>
       </c>
       <c r="E167">
         <v>-5.960833333333333</v>
@@ -4250,7 +4250,7 @@
         <v>44227</v>
       </c>
       <c r="B168">
-        <v>-6.274874999999999</v>
+        <v>-6.274875000000001</v>
       </c>
       <c r="C168">
         <v>-2.446708333333333</v>
@@ -4296,16 +4296,16 @@
         <v>44229</v>
       </c>
       <c r="B170">
-        <v>-5.112125000000002</v>
+        <v>-5.112125</v>
       </c>
       <c r="C170">
         <v>-2.622958333333334</v>
       </c>
       <c r="D170">
-        <v>-0.07916666666666668</v>
+        <v>-0.07916666666666666</v>
       </c>
       <c r="E170">
-        <v>-17.80416666666666</v>
+        <v>-17.80416666666667</v>
       </c>
       <c r="F170">
         <v>83.45833333333333</v>
@@ -4319,10 +4319,10 @@
         <v>44230</v>
       </c>
       <c r="B171">
-        <v>-4.576874999999999</v>
+        <v>-4.576875</v>
       </c>
       <c r="C171">
-        <v>-3.353625000000001</v>
+        <v>-3.353625</v>
       </c>
       <c r="D171">
         <v>0.064</v>
@@ -4345,10 +4345,10 @@
         <v>-3.61225</v>
       </c>
       <c r="C172">
-        <v>-2.783166666666666</v>
+        <v>-2.783166666666667</v>
       </c>
       <c r="D172">
-        <v>-0.1237083333333334</v>
+        <v>-0.1237083333333333</v>
       </c>
       <c r="E172">
         <v>-14.54208333333333</v>
@@ -4371,7 +4371,7 @@
         <v>-2.5535</v>
       </c>
       <c r="D173">
-        <v>-0.2842500000000001</v>
+        <v>-0.28425</v>
       </c>
       <c r="E173">
         <v>-15.8525</v>
@@ -4434,7 +4434,7 @@
         <v>44235</v>
       </c>
       <c r="B176">
-        <v>-0.9752083333333336</v>
+        <v>-0.9752083333333333</v>
       </c>
       <c r="C176">
         <v>-1.88325</v>
@@ -4457,7 +4457,7 @@
         <v>44236</v>
       </c>
       <c r="B177">
-        <v>-0.6483000000000001</v>
+        <v>-0.6483</v>
       </c>
       <c r="C177">
         <v>-1.8028</v>
